--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Mfge8-Pdgfrb.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Mfge8-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.8137380443288</v>
+        <v>21.66138833333333</v>
       </c>
       <c r="H2">
-        <v>11.8137380443288</v>
+        <v>64.98416499999999</v>
       </c>
       <c r="I2">
-        <v>0.1475728297428304</v>
+        <v>0.2252765553546639</v>
       </c>
       <c r="J2">
-        <v>0.1475728297428304</v>
+        <v>0.2252765553546639</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>58.925612233692</v>
+        <v>7.259429666666667</v>
       </c>
       <c r="N2">
-        <v>58.925612233692</v>
+        <v>21.778289</v>
       </c>
       <c r="O2">
-        <v>0.4720934126689682</v>
+        <v>0.05296410708422108</v>
       </c>
       <c r="P2">
-        <v>0.4720934126689682</v>
+        <v>0.05296410708422109</v>
       </c>
       <c r="Q2">
-        <v>696.1317470305337</v>
+        <v>157.2493250881872</v>
       </c>
       <c r="R2">
-        <v>696.1317470305337</v>
+        <v>1415.243925793685</v>
       </c>
       <c r="S2">
-        <v>0.06966816081050942</v>
+        <v>0.01193157160136888</v>
       </c>
       <c r="T2">
-        <v>0.06966816081050942</v>
+        <v>0.01193157160136888</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.8137380443288</v>
+        <v>21.66138833333333</v>
       </c>
       <c r="H3">
-        <v>11.8137380443288</v>
+        <v>64.98416499999999</v>
       </c>
       <c r="I3">
-        <v>0.1475728297428304</v>
+        <v>0.2252765553546639</v>
       </c>
       <c r="J3">
-        <v>0.1475728297428304</v>
+        <v>0.2252765553546639</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>65.8920841212678</v>
+        <v>60.13240533333334</v>
       </c>
       <c r="N3">
-        <v>65.8920841212678</v>
+        <v>180.397216</v>
       </c>
       <c r="O3">
-        <v>0.5279065873310319</v>
+        <v>0.438720299189682</v>
       </c>
       <c r="P3">
-        <v>0.5279065873310319</v>
+        <v>0.4387202991896821</v>
       </c>
       <c r="Q3">
-        <v>778.431821003535</v>
+        <v>1302.551383342738</v>
       </c>
       <c r="R3">
-        <v>778.431821003535</v>
+        <v>11722.96245008464</v>
       </c>
       <c r="S3">
-        <v>0.07790466893232099</v>
+        <v>0.0988333977656191</v>
       </c>
       <c r="T3">
-        <v>0.07790466893232099</v>
+        <v>0.09883339776561913</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.5784834568441</v>
+        <v>21.66138833333333</v>
       </c>
       <c r="H4">
-        <v>24.5784834568441</v>
+        <v>64.98416499999999</v>
       </c>
       <c r="I4">
-        <v>0.3070252904629987</v>
+        <v>0.2252765553546639</v>
       </c>
       <c r="J4">
-        <v>0.3070252904629987</v>
+        <v>0.2252765553546639</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.925612233692</v>
+        <v>69.67135866666666</v>
       </c>
       <c r="N4">
-        <v>58.925612233692</v>
+        <v>209.014076</v>
       </c>
       <c r="O4">
-        <v>0.4720934126689682</v>
+        <v>0.5083155937260968</v>
       </c>
       <c r="P4">
-        <v>0.4720934126689682</v>
+        <v>0.5083155937260969</v>
       </c>
       <c r="Q4">
-        <v>1448.302185470209</v>
+        <v>1509.178355789615</v>
       </c>
       <c r="R4">
-        <v>1448.302185470209</v>
+        <v>13582.60520210654</v>
       </c>
       <c r="S4">
-        <v>0.1449446171503583</v>
+        <v>0.1145115859876759</v>
       </c>
       <c r="T4">
-        <v>0.1449446171503583</v>
+        <v>0.1145115859876759</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.5784834568441</v>
+        <v>24.68088566666666</v>
       </c>
       <c r="H5">
-        <v>24.5784834568441</v>
+        <v>74.04265699999999</v>
       </c>
       <c r="I5">
-        <v>0.3070252904629987</v>
+        <v>0.2566790650963491</v>
       </c>
       <c r="J5">
-        <v>0.3070252904629987</v>
+        <v>0.2566790650963491</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>65.8920841212678</v>
+        <v>7.259429666666667</v>
       </c>
       <c r="N5">
-        <v>65.8920841212678</v>
+        <v>21.778289</v>
       </c>
       <c r="O5">
-        <v>0.5279065873310319</v>
+        <v>0.05296410708422108</v>
       </c>
       <c r="P5">
-        <v>0.5279065873310319</v>
+        <v>0.05296410708422109</v>
       </c>
       <c r="Q5">
-        <v>1619.527499511561</v>
+        <v>179.1691536082081</v>
       </c>
       <c r="R5">
-        <v>1619.527499511561</v>
+        <v>1612.522382473873</v>
       </c>
       <c r="S5">
-        <v>0.1620806733126404</v>
+        <v>0.01359477749004079</v>
       </c>
       <c r="T5">
-        <v>0.1620806733126404</v>
+        <v>0.01359477749004079</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>43.6613904334641</v>
+        <v>24.68088566666666</v>
       </c>
       <c r="H6">
-        <v>43.6613904334641</v>
+        <v>74.04265699999999</v>
       </c>
       <c r="I6">
-        <v>0.545401879794171</v>
+        <v>0.2566790650963491</v>
       </c>
       <c r="J6">
-        <v>0.545401879794171</v>
+        <v>0.2566790650963491</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.925612233692</v>
+        <v>60.13240533333334</v>
       </c>
       <c r="N6">
-        <v>58.925612233692</v>
+        <v>180.397216</v>
       </c>
       <c r="O6">
-        <v>0.4720934126689682</v>
+        <v>0.438720299189682</v>
       </c>
       <c r="P6">
-        <v>0.4720934126689682</v>
+        <v>0.4387202991896821</v>
       </c>
       <c r="Q6">
-        <v>2572.774162266135</v>
+        <v>1484.121020893657</v>
       </c>
       <c r="R6">
-        <v>2572.774162266135</v>
+        <v>13357.08918804291</v>
       </c>
       <c r="S6">
-        <v>0.2574806347081006</v>
+        <v>0.1126103162347981</v>
       </c>
       <c r="T6">
-        <v>0.2574806347081006</v>
+        <v>0.1126103162347982</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>43.6613904334641</v>
+        <v>24.68088566666666</v>
       </c>
       <c r="H7">
-        <v>43.6613904334641</v>
+        <v>74.04265699999999</v>
       </c>
       <c r="I7">
-        <v>0.545401879794171</v>
+        <v>0.2566790650963491</v>
       </c>
       <c r="J7">
-        <v>0.545401879794171</v>
+        <v>0.2566790650963491</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>65.8920841212678</v>
+        <v>69.67135866666666</v>
       </c>
       <c r="N7">
-        <v>65.8920841212678</v>
+        <v>209.014076</v>
       </c>
       <c r="O7">
-        <v>0.5279065873310319</v>
+        <v>0.5083155937260968</v>
       </c>
       <c r="P7">
-        <v>0.5279065873310319</v>
+        <v>0.5083155937260969</v>
       </c>
       <c r="Q7">
-        <v>2876.940011293334</v>
+        <v>1719.550837493326</v>
       </c>
       <c r="R7">
-        <v>2876.940011293334</v>
+        <v>15475.95753743993</v>
       </c>
       <c r="S7">
-        <v>0.2879212450860705</v>
+        <v>0.1304739713715101</v>
       </c>
       <c r="T7">
-        <v>0.2879212450860705</v>
+        <v>0.1304739713715102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>49.812376</v>
+      </c>
+      <c r="H8">
+        <v>149.437128</v>
+      </c>
+      <c r="I8">
+        <v>0.518044379548987</v>
+      </c>
+      <c r="J8">
+        <v>0.5180443795489871</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>7.259429666666667</v>
+      </c>
+      <c r="N8">
+        <v>21.778289</v>
+      </c>
+      <c r="O8">
+        <v>0.05296410708422108</v>
+      </c>
+      <c r="P8">
+        <v>0.05296410708422109</v>
+      </c>
+      <c r="Q8">
+        <v>361.6094401015547</v>
+      </c>
+      <c r="R8">
+        <v>3254.484960913992</v>
+      </c>
+      <c r="S8">
+        <v>0.02743775799281142</v>
+      </c>
+      <c r="T8">
+        <v>0.02743775799281143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>49.812376</v>
+      </c>
+      <c r="H9">
+        <v>149.437128</v>
+      </c>
+      <c r="I9">
+        <v>0.518044379548987</v>
+      </c>
+      <c r="J9">
+        <v>0.5180443795489871</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>60.13240533333334</v>
+      </c>
+      <c r="N9">
+        <v>180.397216</v>
+      </c>
+      <c r="O9">
+        <v>0.438720299189682</v>
+      </c>
+      <c r="P9">
+        <v>0.4387202991896821</v>
+      </c>
+      <c r="Q9">
+        <v>2995.337984248406</v>
+      </c>
+      <c r="R9">
+        <v>26958.04185823565</v>
+      </c>
+      <c r="S9">
+        <v>0.2272765851892647</v>
+      </c>
+      <c r="T9">
+        <v>0.2272765851892648</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>49.812376</v>
+      </c>
+      <c r="H10">
+        <v>149.437128</v>
+      </c>
+      <c r="I10">
+        <v>0.518044379548987</v>
+      </c>
+      <c r="J10">
+        <v>0.5180443795489871</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>69.67135866666666</v>
+      </c>
+      <c r="N10">
+        <v>209.014076</v>
+      </c>
+      <c r="O10">
+        <v>0.5083155937260968</v>
+      </c>
+      <c r="P10">
+        <v>0.5083155937260969</v>
+      </c>
+      <c r="Q10">
+        <v>3470.495914334858</v>
+      </c>
+      <c r="R10">
+        <v>31234.46322901373</v>
+      </c>
+      <c r="S10">
+        <v>0.2633300363669108</v>
+      </c>
+      <c r="T10">
+        <v>0.2633300363669109</v>
       </c>
     </row>
   </sheetData>
